--- a/xls/square_high_un_16_tri3_8.xlsx
+++ b/xls/square_high_un_16_tri3_8.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>type w</t>
+  </si>
+  <si>
+    <t>nʷ</t>
+  </si>
+  <si>
+    <t>type φ</t>
+  </si>
+  <si>
+    <t>nᵠ</t>
+  </si>
+  <si>
+    <t>type Q</t>
+  </si>
+  <si>
+    <t>nˢ</t>
+  </si>
+  <si>
+    <t>type M</t>
+  </si>
+  <si>
+    <t>nᵐ</t>
+  </si>
+  <si>
+    <t>L₂w</t>
+  </si>
+  <si>
+    <t>L₂φ</t>
+  </si>
+  <si>
+    <t>L₂Q</t>
+  </si>
+  <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
+    <t>tri3</t>
+  </si>
+  <si>
+    <t>PiecewisePolynomial{:Linear2D}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +418,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>340</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>384</v>
+      </c>
+      <c r="I8">
+        <v>-0.05682229537091087</v>
+      </c>
+      <c r="J8">
+        <v>0.44304717399682975</v>
+      </c>
+      <c r="K8">
+        <v>-0.1429829354891095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>486</v>
+      </c>
+      <c r="I9">
+        <v>-1.463900020647027</v>
+      </c>
+      <c r="J9">
+        <v>-1.1607918404858928</v>
+      </c>
+      <c r="K9">
+        <v>-0.556644307061955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>-1.605641486612156</v>
+      </c>
+      <c r="J10">
+        <v>-1.4230940429557528</v>
+      </c>
+      <c r="K10">
+        <v>-0.5110617339019685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>726</v>
+      </c>
+      <c r="I11">
+        <v>-1.412677481555959</v>
+      </c>
+      <c r="J11">
+        <v>-1.1367071718682853</v>
+      </c>
+      <c r="K11">
+        <v>-0.12243008700680286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>864</v>
+      </c>
+      <c r="I12">
+        <v>-1.3532082430510237</v>
+      </c>
+      <c r="J12">
+        <v>-1.13498806721011</v>
+      </c>
+      <c r="K12">
+        <v>-0.07751935429881669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>340</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1014</v>
+      </c>
+      <c r="I13">
+        <v>-0.920921345022284</v>
+      </c>
+      <c r="J13">
+        <v>-0.8256419577419425</v>
+      </c>
+      <c r="K13">
+        <v>0.17990619936085692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>1176</v>
+      </c>
+      <c r="I14">
+        <v>-0.9801565465381193</v>
+      </c>
+      <c r="J14">
+        <v>-0.8782206332949788</v>
+      </c>
+      <c r="K14">
+        <v>0.16812746565972417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>1350</v>
+      </c>
+      <c r="I15">
+        <v>-0.6206467084229543</v>
+      </c>
+      <c r="J15">
+        <v>-0.5915592033286616</v>
+      </c>
+      <c r="K15">
+        <v>0.4370139059742729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>1536</v>
+      </c>
+      <c r="I16">
+        <v>-0.6697273710827382</v>
+      </c>
+      <c r="J16">
+        <v>-0.6290395904831593</v>
+      </c>
+      <c r="K16">
+        <v>0.47598435180206505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1734</v>
+      </c>
+      <c r="I17">
+        <v>-0.33722749959286075</v>
+      </c>
+      <c r="J17">
+        <v>-0.31226942477811404</v>
+      </c>
+      <c r="K17">
+        <v>1.1314956308242592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1944</v>
+      </c>
+      <c r="I18">
+        <v>-0.05413760910190565</v>
+      </c>
+      <c r="J18">
+        <v>-0.05220203942674165</v>
+      </c>
+      <c r="K18">
+        <v>1.981918402543986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>2166</v>
+      </c>
+      <c r="I19">
+        <v>2.6736076371647142e-6</v>
+      </c>
+      <c r="J19">
+        <v>-2.6307940753181296e-6</v>
+      </c>
+      <c r="K19">
+        <v>1.9165790461044319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>441</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>2400</v>
+      </c>
+      <c r="I20">
+        <v>-1.7070137571653868e-7</v>
+      </c>
+      <c r="J20">
+        <v>-1.0549250576601114e-6</v>
+      </c>
+      <c r="K20">
+        <v>1.6006695625896221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>484</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>2646</v>
+      </c>
+      <c r="I21">
+        <v>-7.91111820458308e-7</v>
+      </c>
+      <c r="J21">
+        <v>-1.2308154384889813e-6</v>
+      </c>
+      <c r="K21">
+        <v>1.5690551979280674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>529</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>2904</v>
+      </c>
+      <c r="I22">
+        <v>-3.0460453078684494e-7</v>
+      </c>
+      <c r="J22">
+        <v>-6.044075585680053e-7</v>
+      </c>
+      <c r="K22">
+        <v>1.4459976963164525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>576</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>3174</v>
+      </c>
+      <c r="I23">
+        <v>-5.686687839025754e-7</v>
+      </c>
+      <c r="J23">
+        <v>-7.02241167069164e-7</v>
+      </c>
+      <c r="K23">
+        <v>1.4198276993306902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>625</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3456</v>
+      </c>
+      <c r="I24">
+        <v>-4.6836402771638493e-7</v>
+      </c>
+      <c r="J24">
+        <v>-5.538111456275578e-7</v>
+      </c>
+      <c r="K24">
+        <v>1.3595424122643256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-3.918203451757812e-7</v>
+      </c>
+      <c r="J25">
+        <v>-4.678022103145748e-7</v>
+      </c>
+      <c r="K25">
+        <v>1.322794359580698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-4.35978312889619e-7</v>
+      </c>
+      <c r="J26">
+        <v>-4.628968335323888e-7</v>
+      </c>
+      <c r="K26">
+        <v>1.2969684636313497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-3.698513857964818e-7</v>
+      </c>
+      <c r="J27">
+        <v>-3.9154456761893774e-7</v>
+      </c>
+      <c r="K27">
+        <v>1.2592934247481495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-3.9669482851081384e-7</v>
+      </c>
+      <c r="J28">
+        <v>-4.13389613248234e-7</v>
+      </c>
+      <c r="K28">
+        <v>1.266142452289714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-3.148416289723572e-7</v>
+      </c>
+      <c r="J29">
+        <v>-3.4316543511491625e-7</v>
+      </c>
+      <c r="K29">
+        <v>1.2373811819414002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-3.5669996214980067e-7</v>
+      </c>
+      <c r="J30">
+        <v>-3.7385936542494924e-7</v>
+      </c>
+      <c r="K30">
+        <v>1.2472529150182858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-3.13207131452445e-7</v>
+      </c>
+      <c r="J31">
+        <v>-3.320514241676175e-7</v>
+      </c>
+      <c r="K31">
+        <v>1.224321158658677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-3.238558675986461e-7</v>
+      </c>
+      <c r="J32">
+        <v>-3.3448944770770135e-7</v>
+      </c>
+      <c r="K32">
+        <v>1.21955329793399</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/square_high_un_16_tri3_8.xlsx
+++ b/xls/square_high_un_16_tri3_8.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="I8">
-        <v>-0.05682229537091087</v>
+        <v>-1.563129727612697</v>
       </c>
       <c r="J8">
-        <v>0.44304717399682975</v>
+        <v>-1.3190422006929852</v>
       </c>
       <c r="K8">
-        <v>-0.1429829354891095</v>
+        <v>-0.70471362711728</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>486</v>
+        <v>618</v>
       </c>
       <c r="I9">
-        <v>-1.463900020647027</v>
+        <v>-1.701890756929189</v>
       </c>
       <c r="J9">
-        <v>-1.1607918404858928</v>
+        <v>-1.3548636756010033</v>
       </c>
       <c r="K9">
-        <v>-0.556644307061955</v>
+        <v>-0.48417154422598196</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>864</v>
       </c>
       <c r="I10">
-        <v>-1.605641486612156</v>
+        <v>-1.054127023709412</v>
       </c>
       <c r="J10">
-        <v>-1.4230940429557528</v>
+        <v>-0.9204773684651993</v>
       </c>
       <c r="K10">
-        <v>-0.5110617339019685</v>
+        <v>0.029986690851231186</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>726</v>
+        <v>906</v>
       </c>
       <c r="I11">
-        <v>-1.412677481555959</v>
+        <v>-1.0384797825707226</v>
       </c>
       <c r="J11">
-        <v>-1.1367071718682853</v>
+        <v>-0.9162543246600969</v>
       </c>
       <c r="K11">
-        <v>-0.12243008700680286</v>
+        <v>0.0641119533680038</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-1.3532082430510237</v>
+        <v>-0.88012241280795</v>
       </c>
       <c r="J12">
-        <v>-1.13498806721011</v>
+        <v>-0.796368976975187</v>
       </c>
       <c r="K12">
-        <v>-0.07751935429881669</v>
+        <v>0.15535939669466062</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-0.920921345022284</v>
+        <v>-0.7354478026113582</v>
       </c>
       <c r="J13">
-        <v>-0.8256419577419425</v>
+        <v>-0.6826081684404947</v>
       </c>
       <c r="K13">
-        <v>0.17990619936085692</v>
+        <v>0.3155790475256671</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-0.9801565465381193</v>
+        <v>-0.7584375122922096</v>
       </c>
       <c r="J14">
-        <v>-0.8782206332949788</v>
+        <v>-0.7228843712948921</v>
       </c>
       <c r="K14">
-        <v>0.16812746565972417</v>
+        <v>0.2968302111884621</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-0.6206467084229543</v>
+        <v>-0.43527224180652024</v>
       </c>
       <c r="J15">
-        <v>-0.5915592033286616</v>
+        <v>-0.4390405977201657</v>
       </c>
       <c r="K15">
-        <v>0.4370139059742729</v>
+        <v>0.5633496617576944</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-0.6697273710827382</v>
+        <v>-0.5670028413656408</v>
       </c>
       <c r="J16">
-        <v>-0.6290395904831593</v>
+        <v>-0.5550532959522526</v>
       </c>
       <c r="K16">
-        <v>0.47598435180206505</v>
+        <v>0.33163195385579536</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-0.33722749959286075</v>
+        <v>-0.006626778555188894</v>
       </c>
       <c r="J17">
-        <v>-0.31226942477811404</v>
+        <v>-0.007810972752014473</v>
       </c>
       <c r="K17">
-        <v>1.1314956308242592</v>
+        <v>2.1022789806602655</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.05413760910190565</v>
+        <v>-2.9760451300321114e-6</v>
       </c>
       <c r="J18">
-        <v>-0.05220203942674165</v>
+        <v>-2.9263537946890058e-6</v>
       </c>
       <c r="K18">
-        <v>1.981918402543986</v>
+        <v>1.6850375582199262</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>2.6736076371647142e-6</v>
+        <v>-7.496397963074149e-7</v>
       </c>
       <c r="J19">
-        <v>-2.6307940753181296e-6</v>
+        <v>-8.983036479272185e-7</v>
       </c>
       <c r="K19">
-        <v>1.9165790461044319</v>
+        <v>1.463605889071468</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-1.7070137571653868e-7</v>
+        <v>-3.7537610779076775e-7</v>
       </c>
       <c r="J20">
-        <v>-1.0549250576601114e-6</v>
+        <v>-4.5396945911486977e-7</v>
       </c>
       <c r="K20">
-        <v>1.6006695625896221</v>
+        <v>1.319624119161702</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-7.91111820458308e-7</v>
+        <v>-4.164685484566371e-7</v>
       </c>
       <c r="J21">
-        <v>-1.2308154384889813e-6</v>
+        <v>-4.56661944070609e-7</v>
       </c>
       <c r="K21">
-        <v>1.5690551979280674</v>
+        <v>1.300352276321048</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-3.0460453078684494e-7</v>
+        <v>-4.6865926836426896e-7</v>
       </c>
       <c r="J22">
-        <v>-6.044075585680053e-7</v>
+        <v>-4.7174263977923855e-7</v>
       </c>
       <c r="K22">
-        <v>1.4459976963164525</v>
+        <v>1.2883560651526906</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-5.686687839025754e-7</v>
+        <v>-3.402087688068528e-7</v>
       </c>
       <c r="J23">
-        <v>-7.02241167069164e-7</v>
+        <v>-3.726539087197873e-7</v>
       </c>
       <c r="K23">
-        <v>1.4198276993306902</v>
+        <v>1.2563136857187736</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-4.6836402771638493e-7</v>
+        <v>-3.54974497507631e-7</v>
       </c>
       <c r="J24">
-        <v>-5.538111456275578e-7</v>
+        <v>-3.697951095744831e-7</v>
       </c>
       <c r="K24">
-        <v>1.3595424122643256</v>
+        <v>1.2432068676312993</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-3.918203451757812e-7</v>
+        <v>-3.773914761212673e-7</v>
       </c>
       <c r="J25">
-        <v>-4.678022103145748e-7</v>
+        <v>-3.8063742656632107e-7</v>
       </c>
       <c r="K25">
-        <v>1.322794359580698</v>
+        <v>1.2409941593796976</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-4.35978312889619e-7</v>
+        <v>-3.1178256282679387e-7</v>
       </c>
       <c r="J26">
-        <v>-4.628968335323888e-7</v>
+        <v>-3.3219253715847886e-7</v>
       </c>
       <c r="K26">
-        <v>1.2969684636313497</v>
+        <v>1.2248445322938628</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-3.698513857964818e-7</v>
+        <v>-3.2094767284758606e-7</v>
       </c>
       <c r="J27">
-        <v>-3.9154456761893774e-7</v>
+        <v>-3.307824332007017e-7</v>
       </c>
       <c r="K27">
-        <v>1.2592934247481495</v>
+        <v>1.2162820424869627</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-3.9669482851081384e-7</v>
+        <v>-3.2472556192083955e-7</v>
       </c>
       <c r="J28">
-        <v>-4.13389613248234e-7</v>
+        <v>-3.337396493045349e-7</v>
       </c>
       <c r="K28">
-        <v>1.266142452289714</v>
+        <v>1.2174543770569746</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1211,22 +1211,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-3.148416289723572e-7</v>
+        <v>-3.218549689234257e-7</v>
       </c>
       <c r="J29">
-        <v>-3.4316543511491625e-7</v>
+        <v>-3.3188838138912576e-7</v>
       </c>
       <c r="K29">
-        <v>1.2373811819414002</v>
+        <v>1.217379370509606</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1246,22 +1246,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-3.5669996214980067e-7</v>
+        <v>-3.213128491267653e-7</v>
       </c>
       <c r="J30">
-        <v>-3.7385936542494924e-7</v>
+        <v>-3.267880318553737e-7</v>
       </c>
       <c r="K30">
-        <v>1.2472529150182858</v>
+        <v>1.2103439651932164</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1281,22 +1281,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-3.13207131452445e-7</v>
+        <v>-3.036942832761192e-7</v>
       </c>
       <c r="J31">
-        <v>-3.320514241676175e-7</v>
+        <v>-3.1047835311192097e-7</v>
       </c>
       <c r="K31">
-        <v>1.224321158658677</v>
+        <v>1.2005469163277818</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1316,22 +1316,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-3.238558675986461e-7</v>
+        <v>-3.034102975587552e-7</v>
       </c>
       <c r="J32">
-        <v>-3.3448944770770135e-7</v>
+        <v>-3.1070551618301507e-7</v>
       </c>
       <c r="K32">
-        <v>1.21955329793399</v>
+        <v>1.2012115551233598</v>
       </c>
     </row>
   </sheetData>
